--- a/leetcode/leetcode_traceback.xlsx
+++ b/leetcode/leetcode_traceback.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4235DD3-C35A-4182-A2C8-D780F5273D39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E623EC-D5A2-44AB-94EB-299AB62A6436}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="1" r:id="rId1"/>
+    <sheet name="index" sheetId="2" r:id="rId1"/>
+    <sheet name="总结" sheetId="4" r:id="rId2"/>
+    <sheet name="10" sheetId="1" r:id="rId3"/>
+    <sheet name="17" sheetId="3" r:id="rId4"/>
+    <sheet name="20" sheetId="5" r:id="rId5"/>
+    <sheet name="22" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="273">
   <si>
     <t>10. Regular Expression Matching</t>
   </si>
@@ -3261,6 +3272,3962 @@
         <family val="3"/>
       </rPr>
       <t>j) {</t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>leetcode No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/submissions/</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approach#1 </t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>//Runtime: 4 ms, faster than 60.26% of C++ online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 8.4 MB, less than 100.00% of C++ online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;string&gt; letterCombinations(string digits) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;string&gt; res;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        string elm;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(digits.empty()) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        help(res, elm, digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">help(vector&lt;string&gt; &amp;res,string &amp; elm, string &amp;digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">static const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector&lt;string&gt; v = {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"abc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"def"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ghi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jkl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mno"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pqrs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tuv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"wxyz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(start == digits.length()){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            res.push_back(elm);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a = digits[start] - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        string strArr = v[a];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;strArr.length() ; i++){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            elm.push_back(strArr[i]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            help(res,elm,digits,start+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            elm.pop_back();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>//Runtime: 0 ms, faster than 100.00% of Java online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 36.3 MB, less than 98.63% of Java online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>List&lt;String&gt; letterCombinations(String digits) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;String&gt; res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(digits.length() == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        StringBuilder elm = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>StringBuilder(digits.length());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Map&lt;Character, String&gt; phone = new HashMap&lt;Character, String&gt;() {{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('2', "abc");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('3', "def");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('4', "ghi");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('5', "jkl");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('6', "mno");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('7', "pqrs");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('8', "tuv");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //   put('9', "wxyz");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // }};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // List&lt;String&gt; phone = new ArrayList&lt;String&gt;(){{add("abc"); add("ddd");}};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">List&lt;String&gt; phone = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;String&gt;(Arrays.asList(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"abc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"def"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ghi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jkl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mno"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pqrs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tuv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"wxyz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        traceBack (digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, elm, res, phone);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">traceBack(String digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start, StringBuilder elm, List&lt;String&gt; res, List&lt;String&gt; phone){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(start == digits.length()) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            res.add(elm.toString());</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>c = digits.charAt(start);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// if(c == '1') {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        //     traceBack(digits, start+1, elm, res, phone);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //     return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String s = phone.get(c - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            elm.append(s.charAt(i));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            traceBack(digits, start+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, elm, res, phone);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            elm.deleteCharAt(elm.length()-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>//Runtime: 1 ms, faster than 59.85% of Java online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 36 MB, less than 98.63% of Java online submissions for Letter Combinations of a Phone Number.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Map&lt;Character, String&gt; phone = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap&lt;Character, String&gt;() {{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"abc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"def"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'4'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ghi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jkl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'6'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mno"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'7'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pqrs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'8'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tuv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'9'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"wxyz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        }};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">traceBack(String digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start, StringBuilder elm, List&lt;String&gt; res, Map&lt;Character, String&gt; phone){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(c == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        String s = phone.get(c);</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/initialize-an-arraylist-in-java/</t>
+  </si>
+  <si>
+    <t>初始化数组的几种方法</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>//Runtime: 0 ms, faster than 100.00% of C++ online submissions for Valid Parentheses.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 8.4 MB, less than 96.90% of C++ online submissions for Valid Parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid(string s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        stack&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; paren;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">auto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>c : s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: paren.push(c); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(paren.empty() || paren.top()!=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">paren.pop(); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(paren.empty() || paren.top()!=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">paren.pop(); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(paren.empty() || paren.top()!=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">paren.pop(); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// pass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>paren.empty() ;</t>
+    </r>
+  </si>
+  <si>
+    <t>//Runtime: 1 ms, faster than 98.85% of Java online submissions for Valid Parentheses.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 34.4 MB, less than 100.00% of Java online submissions for Valid Parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid(String s1) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Stack&lt;Character&gt; s = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stack&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>c;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;s1.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>switch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c = s1.charAt(i)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    s.push(c);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(s.empty() || s.peek() != </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>s.pop();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(s.empty() || s.peek() != </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(s.empty() || s.peek() != </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>s.empty();</t>
+    </r>
+  </si>
+  <si>
+    <t>//        Memory Usage: 34.5 MB, less than 100.00% of Java online submissions for Valid Parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid(String s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Stack&lt;Character&gt; stack = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stack&lt;Character&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            c = s.charAt(i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(hm.containsKey(c)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(stack.empty() || stack.peek() != hm.get(c))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                stack.pop();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                stack.push(c);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>stack.empty();</t>
+    </r>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 13.9 MB, less than 86.78% of C++ online submissions for Generate Parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    vector&lt;string&gt; generateParenthesis(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        string s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        helper(n, n, s, res);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>helper(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">left, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>right, string &amp;s, vector&lt;string&gt;&amp; res) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(left== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&amp;&amp; right == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">              res.push_back(s);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(left &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              s.push_back(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">              helper(left-1, right, s, res);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              s.pop_back();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(right&gt;left) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              s.push_back(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">              helper(left, right-1, s, res);</t>
+  </si>
+  <si>
+    <t>//Runtime: 0 ms, faster than 100.00% of C++ online submissions for Generate Parentheses.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 13.7 MB, less than 88.43% of C++ online submissions for Generate Parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        string s(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        s.resize(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>*n);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>index = s.size() - left - right;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              s[index] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              s[index] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//Runtime: 8 ms, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>54.35%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> of C++ online submissions for Generate Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//Runtime: 2 ms, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>58.79%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> of Java online submissions for Valid Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Map&lt;Character, Character&gt; hm = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Character, Character&gt;(){{</t>
     </r>
   </si>
 </sst>
@@ -3268,7 +7235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3356,8 +7323,56 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,8 +7385,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3379,12 +7424,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3417,6 +7636,101 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3697,11 +8011,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023F4E89-B122-41D9-B0FD-1A5B133D6E9A}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="16.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="str">
+        <f ca="1">INDIRECT(B2&amp;"!A1")</f>
+        <v>10. Regular Expression Matching</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f ca="1">INDIRECT(B3&amp;"!A1")</f>
+        <v>17. Letter Combinations of a Phone Number</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f ca="1">INDIRECT(B4&amp;"!A1")</f>
+        <v>20. Valid Parentheses</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f ca="1">INDIRECT(B5&amp;"!A1")</f>
+        <v>22. Generate Parentheses</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F7EF4-3F40-45A7-819E-7515DEAADC1E}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="41" t="str">
+        <f ca="1">INDIRECT(17&amp;"!A1")</f>
+        <v>17. Letter Combinations of a Phone Number</v>
+      </c>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{9C102EFC-692E-4AD4-9FBF-E24E03A27FD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,4 +9187,1456 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9408D777-0D3E-4538-B944-877F6C294B4F}">
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="157.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="51"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="54"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{83A2C7CA-C804-4F33-83EB-D4936A7F765B}"/>
+    <hyperlink ref="F55" r:id="rId2" xr:uid="{F63E2FE4-5334-410F-A47A-466A786691CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C91FF91-0361-4871-886B-244D69BA57B3}">
+  <dimension ref="A1:D94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="122.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{692742C8-4EFB-45AD-90A8-8C02A38FE775}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C1AF56-F3B0-403D-83CA-C586C9AD18AF}">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AEF5AF51-41D6-438B-8A84-345AAFC29539}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/leetcode/leetcode_traceback.xlsx
+++ b/leetcode/leetcode_traceback.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E623EC-D5A2-44AB-94EB-299AB62A6436}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604E68B-F8FA-4F2D-BC67-9C792BBA0EE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -8014,8 +8014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023F4E89-B122-41D9-B0FD-1A5B133D6E9A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10295,7 +10295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C1AF56-F3B0-403D-83CA-C586C9AD18AF}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/leetcode/leetcode_traceback.xlsx
+++ b/leetcode/leetcode_traceback.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604E68B-F8FA-4F2D-BC67-9C792BBA0EE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FAA714-A745-4683-9C80-D6BE9ED30028}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="289">
   <si>
     <t>10. Regular Expression Matching</t>
   </si>
@@ -7228,6 +7228,697 @@
         <family val="3"/>
       </rPr>
       <t>Character, Character&gt;(){{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>List&lt;String&gt; letterCombinations(String digits) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;String&gt; res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;String&gt; phone = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;String&gt;(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Arrays.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>asList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"abc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"def"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ghi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jkl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mno"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pqrs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tuv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"wxyz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        traceBack(digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, elm, res, phone);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">traceBack(String digits, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start, StringBuilder elm, List&lt;String&gt; res, List&lt;String&gt; phone) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(start == digits.length()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i &lt; s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            traceBack(digits, start + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, elm, res, phone);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        StringBuilder elm = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>StringBuilder(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>digits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(digits.isEmpty())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        String s = phone.get(digits.charAt(start) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            elm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(start, start + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(s.charAt(i)));</t>
     </r>
   </si>
 </sst>
@@ -7235,7 +7926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7368,6 +8059,20 @@
       <i/>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000043"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -7603,7 +8308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7731,6 +8436,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9191,10 +9899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9408D777-0D3E-4538-B944-877F6C294B4F}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9804,6 +10512,127 @@
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -10295,7 +11124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C1AF56-F3B0-403D-83CA-C586C9AD18AF}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
